--- a/excel/data_excel/Shrines.xlsx
+++ b/excel/data_excel/Shrines.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14D7744-8BE4-4732-93D4-19A2A011511F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12382" yWindow="1943" windowWidth="15391" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +13,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Shrines" localSheetId="0">Sheet1!$A$1:$M$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$O$3</definedName>
+    <definedName name="Shrines" localSheetId="0">Sheet1!$C$1:$O$26</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Shrines" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Shrines" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data_excel\Shrines.txt">
       <textFields count="13">
         <textField/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="71">
   <si>
     <t>Shrine Type</t>
   </si>
@@ -232,12 +234,44 @@
   </si>
   <si>
     <t>drops 5-10 poison gas potions &amp; creates ring of poison gas around shrine</t>
+  </si>
+  <si>
+    <t>数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_Shrines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,12 +320,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Shrines" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Shrines" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,9 +407,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +459,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,1022 +651,1224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="H4">
         <v>100</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="H5">
         <v>100</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>200</v>
       </c>
-      <c r="F4">
+      <c r="H6">
         <v>400</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="G7">
         <v>200</v>
       </c>
-      <c r="F5">
+      <c r="H7">
         <v>400</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5">
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="G8">
         <v>50</v>
       </c>
-      <c r="F6">
+      <c r="H8">
         <v>500</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="G9">
         <v>50</v>
       </c>
-      <c r="F7">
+      <c r="H9">
         <v>500</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7">
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="D8">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>2400</v>
       </c>
-      <c r="H8">
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10">
         <v>4</v>
       </c>
-      <c r="M8">
+      <c r="O10">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="D9">
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="G11">
         <v>200</v>
       </c>
-      <c r="F9">
+      <c r="H11">
         <v>200</v>
       </c>
-      <c r="G9">
+      <c r="I11">
         <v>2400</v>
       </c>
-      <c r="H9">
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9">
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11">
         <v>4</v>
       </c>
-      <c r="M9">
+      <c r="O11">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="D10">
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="G12">
         <v>75</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>3600</v>
       </c>
-      <c r="H10">
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10">
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12">
         <v>4</v>
       </c>
-      <c r="M10">
+      <c r="O12">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="D11">
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="G13">
         <v>75</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>3600</v>
       </c>
-      <c r="H11">
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11">
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13">
         <v>4</v>
       </c>
-      <c r="M11">
+      <c r="O13">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="D12">
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="G14">
         <v>75</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>3600</v>
       </c>
-      <c r="H12">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12">
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14">
         <v>4</v>
       </c>
-      <c r="M12">
+      <c r="O14">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="D13">
+      <c r="F15">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="G15">
         <v>75</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>3600</v>
       </c>
-      <c r="H13">
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13">
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15">
         <v>4</v>
       </c>
-      <c r="M13">
+      <c r="O15">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="D14">
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>2400</v>
       </c>
-      <c r="H14">
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14">
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16">
         <v>4</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="D15">
+      <c r="F17">
         <v>13</v>
       </c>
-      <c r="E15">
+      <c r="G17">
         <v>400</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>2400</v>
       </c>
-      <c r="H15">
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15">
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17">
         <v>4</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="D16">
+      <c r="F18">
         <v>14</v>
       </c>
-      <c r="E16">
+      <c r="G18">
         <v>200</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>4800</v>
       </c>
-      <c r="H16">
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="I16">
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16">
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18">
         <v>4</v>
       </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
         <v>50</v>
       </c>
-      <c r="F17">
+      <c r="H19">
         <v>50</v>
       </c>
-      <c r="G17">
+      <c r="I19">
         <v>3600</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17">
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19">
         <v>4</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="D18">
+      <c r="F20">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>3</v>
       </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="D19">
+      <c r="F21">
         <v>17</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E22" t="s">
         <v>54</v>
       </c>
-      <c r="D20">
+      <c r="F22">
         <v>18</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E23" t="s">
         <v>56</v>
       </c>
-      <c r="D21">
+      <c r="F23">
         <v>19</v>
       </c>
-      <c r="E21">
+      <c r="G23">
         <v>50</v>
       </c>
-      <c r="F21">
+      <c r="H23">
         <v>2000</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E24" t="s">
         <v>58</v>
       </c>
-      <c r="D22">
+      <c r="F24">
         <v>20</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="J22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E25" t="s">
         <v>60</v>
       </c>
-      <c r="D23">
+      <c r="F25">
         <v>21</v>
       </c>
-      <c r="E23">
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="F23">
+      <c r="H25">
         <v>10</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="D24">
+      <c r="F26">
         <v>22</v>
       </c>
-      <c r="E24">
+      <c r="G26">
         <v>5</v>
       </c>
-      <c r="F24">
+      <c r="H26">
         <v>10</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:O3" xr:uid="{4A4FFFEC-9213-40DB-A754-A1101F17EF2E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1603,12 +1876,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
